--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>256.4959262050834</v>
+        <v>630.0042926727823</v>
       </c>
       <c r="R2">
-        <v>256.4959262050834</v>
+        <v>5670.03863405504</v>
       </c>
       <c r="S2">
-        <v>0.000664652855544149</v>
+        <v>0.001505116270618137</v>
       </c>
       <c r="T2">
-        <v>0.000664652855544149</v>
+        <v>0.001505116270618137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>264.1024468590766</v>
+        <v>608.0834732668213</v>
       </c>
       <c r="R3">
-        <v>264.1024468590766</v>
+        <v>5472.751259401392</v>
       </c>
       <c r="S3">
-        <v>0.0006843634831093984</v>
+        <v>0.001452746179910946</v>
       </c>
       <c r="T3">
-        <v>0.0006843634831093984</v>
+        <v>0.001452746179910946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>145.4326162352351</v>
+        <v>389.289819018336</v>
       </c>
       <c r="R4">
-        <v>145.4326162352351</v>
+        <v>3503.608371165024</v>
       </c>
       <c r="S4">
-        <v>0.0003768566818980131</v>
+        <v>0.0009300356321457824</v>
       </c>
       <c r="T4">
-        <v>0.0003768566818980131</v>
+        <v>0.0009300356321457822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>50.05966545828202</v>
+        <v>123.0612625938987</v>
       </c>
       <c r="R5">
-        <v>50.05966545828202</v>
+        <v>1107.551363345088</v>
       </c>
       <c r="S5">
-        <v>0.0001297186278421779</v>
+        <v>0.0002940003913736668</v>
       </c>
       <c r="T5">
-        <v>0.0001297186278421779</v>
+        <v>0.0002940003913736667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>137140.8707823798</v>
+        <v>149066.4469641851</v>
       </c>
       <c r="R6">
-        <v>137140.8707823798</v>
+        <v>1341598.022677666</v>
       </c>
       <c r="S6">
-        <v>0.3553704447704925</v>
+        <v>0.3561282634713128</v>
       </c>
       <c r="T6">
-        <v>0.3553704447704925</v>
+        <v>0.3561282634713127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>141207.8549311991</v>
+        <v>143879.7225221545</v>
       </c>
       <c r="R7">
-        <v>141207.8549311991</v>
+        <v>1294917.50269939</v>
       </c>
       <c r="S7">
-        <v>0.3659091409126065</v>
+        <v>0.3437368822700932</v>
       </c>
       <c r="T7">
-        <v>0.3659091409126065</v>
+        <v>0.3437368822700932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>77758.56687373982</v>
+        <v>92110.56311093138</v>
       </c>
       <c r="R8">
-        <v>77758.56687373982</v>
+        <v>828995.0679983825</v>
       </c>
       <c r="S8">
-        <v>0.2014942470249165</v>
+        <v>0.2200574009518191</v>
       </c>
       <c r="T8">
-        <v>0.2014942470249165</v>
+        <v>0.2200574009518191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>26765.43917712857</v>
+        <v>29117.74631879674</v>
       </c>
       <c r="R9">
-        <v>26765.43917712857</v>
+        <v>262059.7168691707</v>
       </c>
       <c r="S9">
-        <v>0.06935675681939611</v>
+        <v>0.06956396052830535</v>
       </c>
       <c r="T9">
-        <v>0.06935675681939611</v>
+        <v>0.06956396052830534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>73.86358904067812</v>
+        <v>83.52425743013335</v>
       </c>
       <c r="R10">
-        <v>73.86358904067812</v>
+        <v>751.7183168712002</v>
       </c>
       <c r="S10">
-        <v>0.0001914012674703184</v>
+        <v>0.0001995442258274992</v>
       </c>
       <c r="T10">
-        <v>0.0001914012674703184</v>
+        <v>0.0001995442258274991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>76.05405235106517</v>
+        <v>80.61805475114001</v>
       </c>
       <c r="R11">
-        <v>76.05405235106517</v>
+        <v>725.5624927602601</v>
       </c>
       <c r="S11">
-        <v>0.0001970773720219726</v>
+        <v>0.0001926011414886457</v>
       </c>
       <c r="T11">
-        <v>0.0001970773720219726</v>
+        <v>0.0001926011414886456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>41.88048971242164</v>
+        <v>51.61098652308</v>
       </c>
       <c r="R12">
-        <v>41.88048971242164</v>
+        <v>464.4988787077201</v>
       </c>
       <c r="S12">
-        <v>0.0001085240903853261</v>
+        <v>0.0001233015972462391</v>
       </c>
       <c r="T12">
-        <v>0.0001085240903853261</v>
+        <v>0.000123301597246239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>14.41577108701499</v>
+        <v>16.31512784296</v>
       </c>
       <c r="R13">
-        <v>14.41577108701499</v>
+        <v>146.83615058664</v>
       </c>
       <c r="S13">
-        <v>3.735530446668515E-05</v>
+        <v>3.897777310290219E-05</v>
       </c>
       <c r="T13">
-        <v>3.735530446668515E-05</v>
+        <v>3.897777310290219E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>757.4184609063612</v>
+        <v>870.3323739543378</v>
       </c>
       <c r="R14">
-        <v>757.4184609063612</v>
+        <v>7832.99136558904</v>
       </c>
       <c r="S14">
-        <v>0.001962683580716029</v>
+        <v>0.002079273795622784</v>
       </c>
       <c r="T14">
-        <v>0.001962683580716029</v>
+        <v>0.002079273795622783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>779.8801009481349</v>
+        <v>840.0494076087047</v>
       </c>
       <c r="R15">
-        <v>779.8801009481349</v>
+        <v>7560.444668478342</v>
       </c>
       <c r="S15">
-        <v>0.002020887987370164</v>
+        <v>0.002006926057838293</v>
       </c>
       <c r="T15">
-        <v>0.002020887987370164</v>
+        <v>0.002006926057838293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>429.4545725704947</v>
+        <v>537.792418691436</v>
       </c>
       <c r="R16">
-        <v>429.4545725704947</v>
+        <v>4840.131768222924</v>
       </c>
       <c r="S16">
-        <v>0.001112837198658847</v>
+        <v>0.001284816832205264</v>
       </c>
       <c r="T16">
-        <v>0.001112837198658847</v>
+        <v>0.001284816832205264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>147.8234579623817</v>
+        <v>170.0055095827653</v>
       </c>
       <c r="R17">
-        <v>147.8234579623817</v>
+        <v>1530.049586244888</v>
       </c>
       <c r="S17">
-        <v>0.0003830520231052319</v>
+        <v>0.0004061528810894122</v>
       </c>
       <c r="T17">
-        <v>0.0003830520231052319</v>
+        <v>0.0004061528810894122</v>
       </c>
     </row>
   </sheetData>
